--- a/WebApplication.Tests/ReadExcel.xlsx
+++ b/WebApplication.Tests/ReadExcel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo-unit-tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy Khau\Source\Repos\AttendanceManagement\WebApplication.Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76760D79-256F-4411-B7A7-7840461985B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -53,17 +54,59 @@
     <t>31/03/1999</t>
   </si>
   <si>
-    <t>Nguyễn Đức Tuấn Anh</t>
-  </si>
-  <si>
-    <t>Trần Hữu Chánh</t>
+    <t>Bảng danh sách sinh viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhóm - </t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Tuấn</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>01/10/1992</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Trần Hữu</t>
+  </si>
+  <si>
+    <t>Chánh</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>anh@vanlanguni.vn</t>
+  </si>
+  <si>
+    <t>chanh@vanlanguni.vn</t>
+  </si>
+  <si>
+    <t>Trường Đại Học Văn Lang TP.HCM</t>
+  </si>
+  <si>
+    <t>Cộng Hòa Xã Hội Chủ Nghĩa Việt Nam</t>
+  </si>
+  <si>
+    <t>Phòng Đào Tạo</t>
+  </si>
+  <si>
+    <t>Độc lập - Tự do - Hạnh Phúc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +241,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -587,23 +638,33 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="35" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="35" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="35" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="35" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="21" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="24" builtinId="38" customBuiltin="1"/>
@@ -616,12 +677,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="37"/>
-    <cellStyle name="60% - Accent2 2" xfId="38"/>
-    <cellStyle name="60% - Accent3 2" xfId="39"/>
-    <cellStyle name="60% - Accent4 2" xfId="40"/>
-    <cellStyle name="60% - Accent5 2" xfId="41"/>
-    <cellStyle name="60% - Accent6 2" xfId="42"/>
+    <cellStyle name="60% - Accent1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -637,11 +698,12 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="36"/>
+    <cellStyle name="Neutral 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="35"/>
+    <cellStyle name="Normal 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -923,64 +985,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="1" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2">
-        <v>34760</v>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
+  <mergeCells count="5">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{F4CDC5F0-8067-4540-8A15-E60BD116525C}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{2E0BBAA9-D8B1-47AD-BD66-44747BBE192B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>